--- a/C++vsC#.xlsx
+++ b/C++vsC#.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Billig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF3FC99-476A-422D-AC46-EF57855150D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182A77C7-D785-45B0-A100-32ECA0E2CC47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2250" windowWidth="24990" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="6075" windowWidth="24990" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>11.046</t>
+  </si>
+  <si>
+    <t>Integral - Pi</t>
+  </si>
+  <si>
+    <t>sectors</t>
+  </si>
+  <si>
+    <t>numbers</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -160,16 +169,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q20"/>
+  <dimension ref="A3:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,254 +481,318 @@
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G3" s="10" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E4" s="7" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="J4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="11"/>
+      <c r="P4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="Q4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="R4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="5" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E5" s="7">
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>100</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="H5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="I5" s="7">
         <v>100000</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
         <v>0.73294929999999903</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="L5" s="7">
+      <c r="M5" s="8"/>
+      <c r="P5" s="5">
         <v>10</v>
       </c>
-      <c r="M5" s="9">
+      <c r="Q5" s="7">
         <v>100000</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="R5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4">
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
         <v>0.3660062</v>
       </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E6" s="7">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>200</v>
+      </c>
+      <c r="B6" s="7">
+        <v>9.9999999999999998E-17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="H6" s="5">
         <v>100</v>
       </c>
-      <c r="F6" s="9">
+      <c r="I6" s="7">
         <v>1000000</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="L6" s="7">
+      <c r="M6" s="8"/>
+      <c r="P6" s="5">
         <v>100</v>
       </c>
-      <c r="M6" s="9">
+      <c r="Q6" s="7">
         <v>1000000</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="R6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8">
         <v>0.44387549999999998</v>
       </c>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E7" s="7">
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1000</v>
       </c>
-      <c r="F7" s="9">
+      <c r="B7" s="7">
+        <v>1.0000000000000001E-17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="H7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="7">
         <v>10000000</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
         <v>150.86149829999999</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="L7" s="7">
+      <c r="M7" s="8"/>
+      <c r="P7" s="5">
         <v>1000</v>
       </c>
-      <c r="M7" s="9">
+      <c r="Q7" s="7">
         <v>10000000</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="R7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
         <v>0.80145849999999996</v>
       </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="L8" s="7">
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="P8" s="5">
         <v>10000</v>
       </c>
-      <c r="M8" s="9">
+      <c r="Q8" s="7">
         <v>10000000</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="R8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>4.1560179999999898</v>
       </c>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G10" s="10" t="s">
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="7" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="J11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="7">
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="9">
+      <c r="I12" s="7">
         <v>100000</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8">
         <v>7.1252499999999996E-2</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="7">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
+      <c r="I13" s="7">
         <v>1000000</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="J13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8">
         <v>0.1188601</v>
       </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="7">
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="9">
+      <c r="I14" s="7">
         <v>10000000</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="J14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
         <v>0.64231119999999997</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="7">
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
+      <c r="I15" s="7">
         <v>10000000</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="J15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8">
         <v>5.9694569999999896</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
@@ -729,40 +810,49 @@
       <c r="H20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="42">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
